--- a/Datasett/Badeplasser.xlsx
+++ b/Datasett/Badeplasser.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A303949E-81AD-4E31-863B-A8638A90DA47}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E3AA9-D97C-4436-B315-0F8015976F16}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>58.81903283</t>
   </si>
   <si>
-    <t>Oltedalsvatnet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Privat </t>
   </si>
   <si>
@@ -112,13 +109,16 @@
     <t>58.78273163</t>
   </si>
   <si>
-    <t>Flassavatnet</t>
-  </si>
-  <si>
-    <t>Edlandshagen - Perlå</t>
-  </si>
-  <si>
-    <t>Raudvigå</t>
+    <t>Edlandshagen - Perlå badeplass</t>
+  </si>
+  <si>
+    <t>Oltedalsvatnet badeplass</t>
+  </si>
+  <si>
+    <t>Raudvigå badeplass</t>
+  </si>
+  <si>
+    <t>Flassavatnet badeplass</t>
   </si>
 </sst>
 </file>
@@ -962,10 +962,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1001,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1041,50 +1044,50 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
